--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -16,10 +16,11 @@
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
     <sheet name="wt_log2_optimized_expression" sheetId="19" r:id="rId9"/>
-    <sheet name="wt_sigmas" sheetId="20" r:id="rId10"/>
-    <sheet name="dcin5_log2_optimized_expression" sheetId="21" r:id="rId11"/>
+    <sheet name="dcin5_log2_optimized_expression" sheetId="20" r:id="rId10"/>
+    <sheet name="wt_sigmas" sheetId="21" r:id="rId11"/>
     <sheet name="dcin5_sigmas" sheetId="22" r:id="rId12"/>
     <sheet name="network_optimized_weights" sheetId="23" r:id="rId13"/>
+    <sheet name="optimization_diagnostics" sheetId="24" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
   <si>
     <t>CIN5</t>
   </si>
@@ -130,7 +131,34 @@
     <t>makeGraphs</t>
   </si>
   <si>
-    <t>StandardDeviation</t>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>LSE</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>min LSE</t>
+  </si>
+  <si>
+    <t>iteration count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>wt SSE</t>
+  </si>
+  <si>
+    <t>dcin5 SSE</t>
   </si>
 </sst>
 </file>
@@ -807,76 +835,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1245,28 +1203,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1274,10 +1241,19 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1285,10 +1261,19 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1298,8 +1283,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1307,6 +1301,130 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1319,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1408,6 +1526,121 @@
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>6.053689157424072E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2.6902480925460384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.48334263568826563</v>
+      </c>
+      <c r="C8">
+        <v>0.96668527137653126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.36644563293111054</v>
+      </c>
+      <c r="C9">
+        <v>0.7328912658622212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2.4434649219525881</v>
+      </c>
+      <c r="C10">
+        <v>2.4434649219525881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.30409644136370267</v>
+      </c>
+      <c r="C11">
+        <v>1.6685001319357682</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2632,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2432,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2448,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2456,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2464,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2472,7 +2705,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -44,33 +44,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -83,21 +62,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -122,15 +92,6 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -159,16 +120,50 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -208,38 +203,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,192 +646,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -835,366 +807,351 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.10752882926796663</v>
       </c>
       <c r="D2">
-        <v>-0.10752882926796663</v>
+        <v>-0.21372416469211</v>
       </c>
       <c r="E2">
-        <v>-0.21372416469211</v>
+        <v>-0.31860751714045737</v>
       </c>
       <c r="F2">
-        <v>-0.31860751714045737</v>
+        <v>-0.42220412322802653</v>
       </c>
       <c r="G2">
-        <v>-0.42220412322802653</v>
+        <v>-0.5245408401896442</v>
       </c>
       <c r="H2">
-        <v>-0.5245408401896442</v>
+        <v>-0.62564756451637837</v>
       </c>
       <c r="I2">
-        <v>-0.62564756451637837</v>
+        <v>-0.72555521365614828</v>
       </c>
       <c r="J2">
-        <v>-0.72555521365614828</v>
+        <v>-0.82429695607512754</v>
       </c>
       <c r="K2">
-        <v>-0.82429695607512754</v>
+        <v>-0.92190642377122067</v>
       </c>
       <c r="L2">
-        <v>-0.92190642377122067</v>
+        <v>-1.0184187931308848</v>
       </c>
       <c r="M2">
-        <v>-1.0184187931308848</v>
+        <v>-1.1138692187562653</v>
       </c>
       <c r="N2">
-        <v>-1.1138692187562653</v>
+        <v>-1.2082937957904192</v>
       </c>
       <c r="O2">
-        <v>-1.2082937957904192</v>
+        <v>-1.3017281987303575</v>
       </c>
       <c r="P2">
-        <v>-1.3017281987303575</v>
+        <v>-1.3942085481404978</v>
       </c>
       <c r="Q2">
-        <v>-1.3942085481404978</v>
+        <v>-1.4857702339228696</v>
       </c>
       <c r="R2">
-        <v>-1.4857702339228696</v>
+        <v>-1.5764487031176846</v>
       </c>
       <c r="S2">
-        <v>-1.5764487031176846</v>
+        <v>-1.6662784452912476</v>
       </c>
       <c r="T2">
-        <v>-1.6662784452912476</v>
+        <v>-1.7552937135052362</v>
       </c>
       <c r="U2">
-        <v>-1.7552937135052362</v>
+        <v>-1.8435276495334167</v>
       </c>
       <c r="V2">
-        <v>-1.8435276495334167</v>
-      </c>
-      <c r="W2">
         <v>-1.9310129087264443</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-7.1240625586903042E-2</v>
       </c>
       <c r="D3">
+        <v>-0.14072357196508833</v>
+      </c>
+      <c r="E3">
+        <v>-0.20849506779862265</v>
+      </c>
+      <c r="F3">
+        <v>-0.2746020700040106</v>
+      </c>
+      <c r="G3">
+        <v>-0.33909143952118487</v>
+      </c>
+      <c r="H3">
+        <v>-0.40201022796380664</v>
+      </c>
+      <c r="I3">
+        <v>-0.4634049738445899</v>
+      </c>
+      <c r="J3">
+        <v>-0.52332195458294883</v>
+      </c>
+      <c r="K3">
+        <v>-0.58180662729084942</v>
+      </c>
+      <c r="L3">
+        <v>-0.6389038549441679</v>
+      </c>
+      <c r="M3">
+        <v>-0.69465746765753478</v>
+      </c>
+      <c r="N3">
+        <v>-0.74911046823301408</v>
+      </c>
+      <c r="O3">
+        <v>-0.80230469197013288</v>
+      </c>
+      <c r="P3">
+        <v>-0.85428099461367157</v>
+      </c>
+      <c r="Q3">
+        <v>-0.90507899148002124</v>
+      </c>
+      <c r="R3">
+        <v>-0.95473722958837581</v>
+      </c>
+      <c r="S3">
+        <v>-1.0032929897926683</v>
+      </c>
+      <c r="T3">
+        <v>-1.0507824442476372</v>
+      </c>
+      <c r="U3">
+        <v>-1.0972405080318333</v>
+      </c>
+      <c r="V3">
+        <v>-1.1427009763938774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>-7.1240625586903042E-2</v>
       </c>
-      <c r="E3">
+      <c r="D5">
         <v>-0.14072357196508833</v>
       </c>
-      <c r="F3">
+      <c r="E5">
         <v>-0.20849506779862265</v>
       </c>
-      <c r="G3">
+      <c r="F5">
         <v>-0.2746020700040106</v>
       </c>
-      <c r="H3">
+      <c r="G5">
         <v>-0.33909143952118487</v>
       </c>
-      <c r="I3">
+      <c r="H5">
         <v>-0.40201022796380664</v>
       </c>
-      <c r="J3">
+      <c r="I5">
         <v>-0.4634049738445899</v>
       </c>
-      <c r="K3">
+      <c r="J5">
         <v>-0.52332195458294883</v>
       </c>
-      <c r="L3">
+      <c r="K5">
         <v>-0.58180662729084942</v>
       </c>
-      <c r="M3">
+      <c r="L5">
         <v>-0.6389038549441679</v>
       </c>
-      <c r="N3">
+      <c r="M5">
         <v>-0.69465746765753478</v>
       </c>
-      <c r="O3">
+      <c r="N5">
         <v>-0.74911046823301408</v>
       </c>
-      <c r="P3">
+      <c r="O5">
         <v>-0.80230469197013288</v>
       </c>
-      <c r="Q3">
+      <c r="P5">
         <v>-0.85428099461367157</v>
       </c>
-      <c r="R3">
+      <c r="Q5">
         <v>-0.90507899148002124</v>
       </c>
-      <c r="S3">
+      <c r="R5">
         <v>-0.95473722958837581</v>
       </c>
-      <c r="T3">
+      <c r="S5">
         <v>-1.0032929897926683</v>
       </c>
-      <c r="U3">
+      <c r="T5">
         <v>-1.0507824442476372</v>
       </c>
-      <c r="V3">
+      <c r="U5">
         <v>-1.0972405080318333</v>
       </c>
-      <c r="W3">
-        <v>-1.1427009763938774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-7.1240625586903042E-2</v>
-      </c>
-      <c r="E5">
-        <v>-0.14072357196508833</v>
-      </c>
-      <c r="F5">
-        <v>-0.20849506779862265</v>
-      </c>
-      <c r="G5">
-        <v>-0.2746020700040106</v>
-      </c>
-      <c r="H5">
-        <v>-0.33909143952118487</v>
-      </c>
-      <c r="I5">
-        <v>-0.40201022796380664</v>
-      </c>
-      <c r="J5">
-        <v>-0.4634049738445899</v>
-      </c>
-      <c r="K5">
-        <v>-0.52332195458294883</v>
-      </c>
-      <c r="L5">
-        <v>-0.58180662729084942</v>
-      </c>
-      <c r="M5">
-        <v>-0.6389038549441679</v>
-      </c>
-      <c r="N5">
-        <v>-0.69465746765753478</v>
-      </c>
-      <c r="O5">
-        <v>-0.74911046823301408</v>
-      </c>
-      <c r="P5">
-        <v>-0.80230469197013288</v>
-      </c>
-      <c r="Q5">
-        <v>-0.85428099461367157</v>
-      </c>
-      <c r="R5">
-        <v>-0.90507899148002124</v>
-      </c>
-      <c r="S5">
-        <v>-0.95473722958837581</v>
-      </c>
-      <c r="T5">
-        <v>-1.0032929897926683</v>
-      </c>
-      <c r="U5">
-        <v>-1.0507824442476372</v>
-      </c>
       <c r="V5">
-        <v>-1.0972405080318333</v>
-      </c>
-      <c r="W5">
         <v>-1.1427009763938774</v>
       </c>
     </row>
@@ -1205,63 +1162,57 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1269,15 +1220,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1289,16 +1237,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1307,9 +1252,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1320,63 +1262,57 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1384,15 +1320,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1404,16 +1337,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1422,9 +1352,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1437,21 +1364,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
+      <c r="A1" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1462,7 +1387,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1479,7 +1404,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1538,22 +1463,22 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>6.053689157424072E-2</v>
@@ -1561,7 +1486,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2.6902480925460384</v>
@@ -1569,7 +1494,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1577,7 +1502,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>480</v>
@@ -1585,23 +1510,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.48334263568826563</v>
@@ -1612,7 +1537,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.36644563293111054</v>
@@ -1650,159 +1575,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1814,20 +1706,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -1836,7 +1728,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -1845,16 +1737,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -1862,17 +1754,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -1881,7 +1770,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -1890,7 +1779,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -1899,7 +1788,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -1907,16 +1796,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -1925,7 +1811,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -1934,7 +1820,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -1943,7 +1829,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -1951,16 +1837,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -1969,7 +1852,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -1978,7 +1861,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -1987,7 +1870,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -1995,16 +1878,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -2013,7 +1893,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -2022,7 +1902,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -2031,7 +1911,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -2039,40 +1919,37 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2081,285 +1958,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2369,9 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2396,14 +2256,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2414,7 +2274,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2431,7 +2291,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2492,9 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2518,14 +2376,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2553,7 +2411,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2570,7 +2428,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2620,7 +2478,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2632,7 +2490,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2642,22 +2500,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2678,7 +2536,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -2686,7 +2544,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2694,7 +2552,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -2702,57 +2560,57 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -2766,21 +2624,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
@@ -2788,10 +2646,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
@@ -2799,8 +2657,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
+      <c r="A17" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2878,20 +2736,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2899,7 +2760,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2928,373 +2789,358 @@
       <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.10752882926796663</v>
       </c>
       <c r="D2">
-        <v>-0.10752882926796663</v>
+        <v>-0.21372416469211</v>
       </c>
       <c r="E2">
-        <v>-0.21372416469211</v>
+        <v>-0.31860751714045737</v>
       </c>
       <c r="F2">
-        <v>-0.31860751714045737</v>
+        <v>-0.42220412322802653</v>
       </c>
       <c r="G2">
-        <v>-0.42220412322802653</v>
+        <v>-0.5245408401896442</v>
       </c>
       <c r="H2">
-        <v>-0.5245408401896442</v>
+        <v>-0.62564756451637837</v>
       </c>
       <c r="I2">
-        <v>-0.62564756451637837</v>
+        <v>-0.72555521365614828</v>
       </c>
       <c r="J2">
-        <v>-0.72555521365614828</v>
+        <v>-0.82429695607512754</v>
       </c>
       <c r="K2">
-        <v>-0.82429695607512754</v>
+        <v>-0.92190642377122067</v>
       </c>
       <c r="L2">
-        <v>-0.92190642377122067</v>
+        <v>-1.0184187931308848</v>
       </c>
       <c r="M2">
-        <v>-1.0184187931308848</v>
+        <v>-1.1138692187562653</v>
       </c>
       <c r="N2">
-        <v>-1.1138692187562653</v>
+        <v>-1.2082937957904192</v>
       </c>
       <c r="O2">
-        <v>-1.2082937957904192</v>
+        <v>-1.3017281987303575</v>
       </c>
       <c r="P2">
-        <v>-1.3017281987303575</v>
+        <v>-1.3942085481404978</v>
       </c>
       <c r="Q2">
-        <v>-1.3942085481404978</v>
+        <v>-1.4857702339228696</v>
       </c>
       <c r="R2">
-        <v>-1.4857702339228696</v>
+        <v>-1.5764487031176846</v>
       </c>
       <c r="S2">
-        <v>-1.5764487031176846</v>
+        <v>-1.6662784452912476</v>
       </c>
       <c r="T2">
-        <v>-1.6662784452912476</v>
+        <v>-1.7552937135052362</v>
       </c>
       <c r="U2">
-        <v>-1.7552937135052362</v>
+        <v>-1.8435276495334167</v>
       </c>
       <c r="V2">
-        <v>-1.8435276495334167</v>
-      </c>
-      <c r="W2">
         <v>-1.9310129087264443</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-7.1240625586903042E-2</v>
       </c>
       <c r="D3">
-        <v>-7.1240625586903042E-2</v>
+        <v>-0.14072357196508833</v>
       </c>
       <c r="E3">
-        <v>-0.14072357196508833</v>
+        <v>-0.20849506779862265</v>
       </c>
       <c r="F3">
-        <v>-0.20849506779862265</v>
+        <v>-0.2746020700040106</v>
       </c>
       <c r="G3">
-        <v>-0.2746020700040106</v>
+        <v>-0.33909143952118487</v>
       </c>
       <c r="H3">
-        <v>-0.33909143952118487</v>
+        <v>-0.40201022796380664</v>
       </c>
       <c r="I3">
-        <v>-0.40201022796380664</v>
+        <v>-0.4634049738445899</v>
       </c>
       <c r="J3">
-        <v>-0.4634049738445899</v>
+        <v>-0.52332195458294883</v>
       </c>
       <c r="K3">
-        <v>-0.52332195458294883</v>
+        <v>-0.58180662729084942</v>
       </c>
       <c r="L3">
-        <v>-0.58180662729084942</v>
+        <v>-0.6389038549441679</v>
       </c>
       <c r="M3">
-        <v>-0.6389038549441679</v>
+        <v>-0.69465746765753478</v>
       </c>
       <c r="N3">
-        <v>-0.69465746765753478</v>
+        <v>-0.74911046823301408</v>
       </c>
       <c r="O3">
-        <v>-0.74911046823301408</v>
+        <v>-0.80230469197013288</v>
       </c>
       <c r="P3">
-        <v>-0.80230469197013288</v>
+        <v>-0.85428099461367157</v>
       </c>
       <c r="Q3">
-        <v>-0.85428099461367157</v>
+        <v>-0.90507899148002124</v>
       </c>
       <c r="R3">
-        <v>-0.90507899148002124</v>
+        <v>-0.95473722958837581</v>
       </c>
       <c r="S3">
-        <v>-0.95473722958837581</v>
+        <v>-1.0032929897926683</v>
       </c>
       <c r="T3">
-        <v>-1.0032929897926683</v>
+        <v>-1.0507824442476372</v>
       </c>
       <c r="U3">
-        <v>-1.0507824442476372</v>
+        <v>-1.0972405080318333</v>
       </c>
       <c r="V3">
-        <v>-1.0972405080318333</v>
-      </c>
-      <c r="W3">
         <v>-1.1427009763938774</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-8.5457932310202143E-4</v>
       </c>
       <c r="D4">
-        <v>-8.5457932310202143E-4</v>
+        <v>-3.2428206347424543E-3</v>
       </c>
       <c r="E4">
-        <v>-3.2428206347424543E-3</v>
+        <v>-6.9283032012923303E-3</v>
       </c>
       <c r="F4">
-        <v>-6.9283032012923303E-3</v>
+        <v>-1.1705264223042756E-2</v>
       </c>
       <c r="G4">
-        <v>-1.1705264223042756E-2</v>
+        <v>-1.7395150583552905E-2</v>
       </c>
       <c r="H4">
-        <v>-1.7395150583552905E-2</v>
+        <v>-2.3841983391596325E-2</v>
       </c>
       <c r="I4">
-        <v>-2.3841983391596325E-2</v>
+        <v>-3.0910160838100068E-2</v>
       </c>
       <c r="J4">
-        <v>-3.0910160838100068E-2</v>
+        <v>-3.8481128674090419E-2</v>
       </c>
       <c r="K4">
-        <v>-3.8481128674090419E-2</v>
+        <v>-4.6451862751581988E-2</v>
       </c>
       <c r="L4">
-        <v>-4.6451862751581988E-2</v>
+        <v>-5.4732401801416419E-2</v>
       </c>
       <c r="M4">
-        <v>-5.4732401801416419E-2</v>
+        <v>-6.3244751022532839E-2</v>
       </c>
       <c r="N4">
-        <v>-6.3244751022532839E-2</v>
+        <v>-7.1921010446804531E-2</v>
       </c>
       <c r="O4">
-        <v>-7.1921010446804531E-2</v>
+        <v>-8.0702554171626695E-2</v>
       </c>
       <c r="P4">
-        <v>-8.0702554171626695E-2</v>
+        <v>-8.9538587226780347E-2</v>
       </c>
       <c r="Q4">
-        <v>-8.9538587226780347E-2</v>
+        <v>-9.8385516016105887E-2</v>
       </c>
       <c r="R4">
-        <v>-9.8385516016105887E-2</v>
+        <v>-0.10720582417236979</v>
       </c>
       <c r="S4">
-        <v>-0.10720582417236979</v>
+        <v>-0.11596758279576748</v>
       </c>
       <c r="T4">
-        <v>-0.11596758279576748</v>
+        <v>-0.12464356996105803</v>
       </c>
       <c r="U4">
-        <v>-0.12464356996105803</v>
+        <v>-0.13321088736699349</v>
       </c>
       <c r="V4">
-        <v>-0.13321088736699349</v>
-      </c>
-      <c r="W4">
         <v>-0.14165027670640506</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-7.0780707160958189E-2</v>
       </c>
       <c r="D5">
-        <v>-7.0780707160958189E-2</v>
+        <v>-0.13885027284662849</v>
       </c>
       <c r="E5">
-        <v>-0.13885027284662849</v>
+        <v>-0.20421026663221375</v>
       </c>
       <c r="F5">
-        <v>-0.20421026663221375</v>
+        <v>-0.2668719350043518</v>
       </c>
       <c r="G5">
-        <v>-0.2668719350043518</v>
+        <v>-0.32685456337966745</v>
       </c>
       <c r="H5">
-        <v>-0.32685456337966745</v>
+        <v>-0.38418697414933189</v>
       </c>
       <c r="I5">
-        <v>-0.38418697414933189</v>
+        <v>-0.43890565089894518</v>
       </c>
       <c r="J5">
-        <v>-0.43890565089894518</v>
+        <v>-0.4910558238757029</v>
       </c>
       <c r="K5">
-        <v>-0.4910558238757029</v>
+        <v>-0.54068951148984667</v>
       </c>
       <c r="L5">
-        <v>-0.54068951148984667</v>
+        <v>-0.58786624427765977</v>
       </c>
       <c r="M5">
-        <v>-0.58786624427765977</v>
+        <v>-0.6326510812273507</v>
       </c>
       <c r="N5">
-        <v>-0.6326510812273507</v>
+        <v>-0.6751150500230273</v>
       </c>
       <c r="O5">
-        <v>-0.6751150500230273</v>
+        <v>-0.71533321032242714</v>
       </c>
       <c r="P5">
-        <v>-0.71533321032242714</v>
+        <v>-0.75338489894948668</v>
       </c>
       <c r="Q5">
-        <v>-0.75338489894948668</v>
+        <v>-0.78935191170151264</v>
       </c>
       <c r="R5">
-        <v>-0.78935191170151264</v>
+        <v>-0.82331863805382732</v>
       </c>
       <c r="S5">
-        <v>-0.82331863805382732</v>
+        <v>-0.85537042021969178</v>
       </c>
       <c r="T5">
-        <v>-0.85537042021969178</v>
+        <v>-0.88559364697492793</v>
       </c>
       <c r="U5">
-        <v>-0.88559364697492793</v>
+        <v>-0.91407432863480387</v>
       </c>
       <c r="V5">
-        <v>-0.91407432863480387</v>
-      </c>
-      <c r="W5">
         <v>-0.94089816461395803</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Sheet</t>
   </si>
   <si>
-    <t>Sigmoid</t>
-  </si>
-  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>threshold_b</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -817,7 +820,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1172,7 +1175,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1272,7 +1275,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1370,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1462,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1470,15 +1473,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>6.053689157424072E-2</v>
@@ -1486,7 +1489,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2.6902480925460384</v>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1502,7 +1505,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>480</v>
@@ -1510,18 +1513,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1590,10 +1593,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1716,7 +1719,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1968,7 +1971,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2257,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2377,7 +2380,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2489,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2568,15 +2571,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2584,7 +2587,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2608,7 +2611,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2631,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2658,7 +2661,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2744,10 +2747,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2806,7 +2809,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -1367,13 +1367,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2260,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2380,7 +2380,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2492,7 +2492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2571,15 +2571,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2740,17 +2740,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -143,13 +143,16 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -171,6 +174,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -180,6 +184,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1367,13 +1372,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2260,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2380,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2490,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2570,16 +2575,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>32</v>
+    </row>
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2587,143 +2592,151 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -113,12 +113,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>wt SSE</t>
-  </si>
-  <si>
-    <t>dcin5 SSE</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>L_curve</t>
+  </si>
+  <si>
+    <t>wt MSE</t>
+  </si>
+  <si>
+    <t>dcin5 MSE</t>
   </si>
 </sst>
 </file>
@@ -668,10 +668,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -825,7 +825,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1180,7 +1180,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1280,7 +1280,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1378,7 +1378,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1525,11 +1525,11 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="B7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,10 +1598,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1976,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2265,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2385,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2497,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -2576,15 +2576,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2760,10 +2760,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2822,7 +2822,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -69,9 +74,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -327,6 +329,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -668,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -825,7 +830,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1180,7 +1185,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1280,7 +1285,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1378,7 +1383,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1470,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
@@ -1478,15 +1483,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>6.053689157424072E-2</v>
@@ -1494,7 +1499,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2.6902480925460384</v>
@@ -1502,7 +1507,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1510,7 +1515,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>480</v>
@@ -1518,18 +1523,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,10 +1603,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1724,7 +1729,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1976,7 +1981,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2265,7 +2270,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2385,7 +2390,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2495,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2506,27 +2511,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2534,7 +2527,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2542,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2543,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2558,7 +2551,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2566,7 +2559,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2574,57 +2567,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2639,20 +2632,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -2663,80 +2656,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>32</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -2760,10 +2742,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2822,7 +2804,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="15278" tabRatio="644" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -25,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -160,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -236,8 +241,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,20 +646,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -662,7 +667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +675,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -678,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +692,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -696,54 +701,54 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
     </row>
   </sheetData>
@@ -760,19 +765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -840,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -848,67 +853,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-0.10752882926796663</v>
+        <v>-0.107528829267967</v>
       </c>
       <c r="D2" s="2">
         <v>-0.21372416469211</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.31860751714045737</v>
+        <v>-0.31860751714045699</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.42220412322802653</v>
+        <v>-0.42220412322802697</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.5245408401896442</v>
+        <v>-0.52454084018964398</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.62564756451637837</v>
+        <v>-0.62564756451637804</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.72555521365614828</v>
+        <v>-0.72555521365614795</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.82429695607512754</v>
+        <v>-0.82429695607512798</v>
       </c>
       <c r="K2" s="2">
-        <v>-0.92190642377122067</v>
+        <v>-0.92190642377122101</v>
       </c>
       <c r="L2" s="2">
-        <v>-1.0184187931308848</v>
+        <v>-1.0184187931308799</v>
       </c>
       <c r="M2" s="2">
-        <v>-1.1138692187562653</v>
+        <v>-1.11386921875627</v>
       </c>
       <c r="N2" s="2">
-        <v>-1.2082937957904192</v>
+        <v>-1.2082937957904201</v>
       </c>
       <c r="O2" s="2">
-        <v>-1.3017281987303575</v>
+        <v>-1.3017281987303599</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.3942085481404978</v>
+        <v>-1.3942085481405</v>
       </c>
       <c r="Q2" s="2">
-        <v>-1.4857702339228696</v>
+        <v>-1.48577023392287</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.5764487031176846</v>
+        <v>-1.5764487031176799</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.6662784452912476</v>
+        <v>-1.66627844529125</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.7552937135052362</v>
+        <v>-1.75529371350524</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.8435276495334167</v>
+        <v>-1.8435276495334201</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.9310129087264443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.93101290872644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -916,67 +921,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>-7.1240625586903042E-2</v>
+        <v>-7.1240625586903E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.14072357196508833</v>
+        <v>-0.140723571965088</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.20849506779862265</v>
+        <v>-0.20849506779862301</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.2746020700040106</v>
+        <v>-0.27460207000401099</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.33909143952118487</v>
+        <v>-0.33909143952118498</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.40201022796380664</v>
+        <v>-0.40201022796380698</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.4634049738445899</v>
+        <v>-0.46340497384459001</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.52332195458294883</v>
+        <v>-0.52332195458294894</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.58180662729084942</v>
+        <v>-0.58180662729084898</v>
       </c>
       <c r="L3" s="2">
-        <v>-0.6389038549441679</v>
+        <v>-0.63890385494416801</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.69465746765753478</v>
+        <v>-0.694657467657535</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.74911046823301408</v>
+        <v>-0.74911046823301397</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.80230469197013288</v>
+        <v>-0.80230469197013299</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.85428099461367157</v>
+        <v>-0.85428099461367202</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.90507899148002124</v>
+        <v>-0.90507899148002102</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.95473722958837581</v>
+        <v>-0.95473722958837604</v>
       </c>
       <c r="S3" s="2">
-        <v>-1.0032929897926683</v>
+        <v>-1.0032929897926699</v>
       </c>
       <c r="T3" s="2">
-        <v>-1.0507824442476372</v>
+        <v>-1.0507824442476399</v>
       </c>
       <c r="U3" s="2">
-        <v>-1.0972405080318333</v>
+        <v>-1.0972405080318299</v>
       </c>
       <c r="V3" s="2">
-        <v>-1.1427009763938774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-1.14270097639388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1052,64 +1057,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-7.1240625586903042E-2</v>
+        <v>-7.1240625586903E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.14072357196508833</v>
+        <v>-0.140723571965088</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.20849506779862265</v>
+        <v>-0.20849506779862301</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.2746020700040106</v>
+        <v>-0.27460207000401099</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.33909143952118487</v>
+        <v>-0.33909143952118498</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.40201022796380664</v>
+        <v>-0.40201022796380698</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.4634049738445899</v>
+        <v>-0.46340497384459001</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.52332195458294883</v>
+        <v>-0.52332195458294894</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.58180662729084942</v>
+        <v>-0.58180662729084898</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.6389038549441679</v>
+        <v>-0.63890385494416801</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.69465746765753478</v>
+        <v>-0.694657467657535</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.74911046823301408</v>
+        <v>-0.74911046823301397</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.80230469197013288</v>
+        <v>-0.80230469197013299</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.85428099461367157</v>
+        <v>-0.85428099461367202</v>
       </c>
       <c r="Q5" s="2">
-        <v>-0.90507899148002124</v>
+        <v>-0.90507899148002102</v>
       </c>
       <c r="R5" s="2">
-        <v>-0.95473722958837581</v>
+        <v>-0.95473722958837604</v>
       </c>
       <c r="S5" s="2">
-        <v>-1.0032929897926683</v>
+        <v>-1.0032929897926699</v>
       </c>
       <c r="T5" s="2">
-        <v>-1.0507824442476372</v>
+        <v>-1.0507824442476399</v>
       </c>
       <c r="U5" s="2">
-        <v>-1.0972405080318333</v>
+        <v>-1.0972405080318299</v>
       </c>
       <c r="V5" s="2">
-        <v>-1.1427009763938774</v>
+        <v>-1.14270097639388</v>
       </c>
     </row>
   </sheetData>
@@ -1123,19 +1128,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1152,15 +1157,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1169,12 +1174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1186,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1231,19 +1236,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1260,15 +1265,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1277,12 +1282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1294,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1339,19 +1344,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1447,19 +1452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1467,31 +1472,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>6.053689157424072E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6.0536891574240699E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>2.6902480925460384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.6902480925460401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.2133358649639599E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1499,12 +1504,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1515,48 +1520,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>0.48334263568826563</v>
+        <v>0.48334263568826602</v>
       </c>
       <c r="C8" s="2">
-        <v>0.96668527137653126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.96668527137653104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>0.36644563293111054</v>
+        <v>0.36644563293111099</v>
       </c>
       <c r="C9" s="2">
-        <v>0.7328912658622212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.73289126586222098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>2.4434649219525881</v>
+        <v>2.4434649219525899</v>
       </c>
       <c r="C10" s="2">
-        <v>2.4434649219525881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2.4434649219525899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>0.30409644136370267</v>
+        <v>0.30409644136370301</v>
       </c>
       <c r="C11" s="2">
-        <v>1.6685001319357682</v>
+        <v>1.66850013193577</v>
       </c>
     </row>
   </sheetData>
@@ -1570,21 +1575,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1624,43 +1629,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1677,19 +1682,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.5703125" style="2"/>
+    <col min="1" max="16384" width="10.5859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1712,10 +1717,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1731,195 +1736,195 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="6">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.54159993841241605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="6">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.1097262320569601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -1937,19 +1942,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1972,10 +1977,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1991,89 +1996,89 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2114,92 +2119,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="6">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-0.402590113617106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
@@ -2216,34 +2221,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.29296875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2294,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2342,34 +2347,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.41015625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2403,7 +2408,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2437,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2485,20 +2490,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="21.1171875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2506,7 +2511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2543,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2619,7 +2624,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2644,7 +2649,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="2">
         <v>0.4</v>
@@ -2653,10 +2658,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="2">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="2">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="2">
         <v>0.8</v>
@@ -2671,13 +2676,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16" s="2">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="2">
         <v>1.3</v>
       </c>
       <c r="P16" s="2">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" s="2">
         <v>1.5</v>
@@ -2686,13 +2691,13 @@
         <v>1.6</v>
       </c>
       <c r="S16" s="2">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16" s="2">
         <v>1.8</v>
       </c>
       <c r="U16" s="2">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16" s="2">
         <v>2</v>
@@ -2712,19 +2717,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2732,7 +2737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2740,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2748,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2764,10 +2769,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
@@ -2782,19 +2787,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2862,7 +2867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2870,67 +2875,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-0.10752882926796663</v>
+        <v>-0.107528829267967</v>
       </c>
       <c r="D2" s="2">
         <v>-0.21372416469211</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.31860751714045737</v>
+        <v>-0.31860751714045699</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.42220412322802653</v>
+        <v>-0.42220412322802697</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.5245408401896442</v>
+        <v>-0.52454084018964398</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.62564756451637837</v>
+        <v>-0.62564756451637804</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.72555521365614828</v>
+        <v>-0.72555521365614795</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.82429695607512754</v>
+        <v>-0.82429695607512798</v>
       </c>
       <c r="K2" s="2">
-        <v>-0.92190642377122067</v>
+        <v>-0.92190642377122101</v>
       </c>
       <c r="L2" s="2">
-        <v>-1.0184187931308848</v>
+        <v>-1.0184187931308799</v>
       </c>
       <c r="M2" s="2">
-        <v>-1.1138692187562653</v>
+        <v>-1.11386921875627</v>
       </c>
       <c r="N2" s="2">
-        <v>-1.2082937957904192</v>
+        <v>-1.2082937957904201</v>
       </c>
       <c r="O2" s="2">
-        <v>-1.3017281987303575</v>
+        <v>-1.3017281987303599</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.3942085481404978</v>
+        <v>-1.3942085481405</v>
       </c>
       <c r="Q2" s="2">
-        <v>-1.4857702339228696</v>
+        <v>-1.48577023392287</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.5764487031176846</v>
+        <v>-1.5764487031176799</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.6662784452912476</v>
+        <v>-1.66627844529125</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.7552937135052362</v>
+        <v>-1.75529371350524</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.8435276495334167</v>
+        <v>-1.8435276495334201</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.9310129087264443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.93101290872644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2938,67 +2943,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>-7.1240625586903042E-2</v>
+        <v>-7.1240625586903E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.14072357196508833</v>
+        <v>-0.140723571965088</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.20849506779862265</v>
+        <v>-0.20849506779862301</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.2746020700040106</v>
+        <v>-0.27460207000401099</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.33909143952118487</v>
+        <v>-0.33909143952118498</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.40201022796380664</v>
+        <v>-0.40201022796380698</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.4634049738445899</v>
+        <v>-0.46340497384459001</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.52332195458294883</v>
+        <v>-0.52332195458294894</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.58180662729084942</v>
+        <v>-0.58180662729084898</v>
       </c>
       <c r="L3" s="2">
-        <v>-0.6389038549441679</v>
+        <v>-0.63890385494416801</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.69465746765753478</v>
+        <v>-0.694657467657535</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.74911046823301408</v>
+        <v>-0.74911046823301397</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.80230469197013288</v>
+        <v>-0.80230469197013299</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.85428099461367157</v>
+        <v>-0.85428099461367202</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.90507899148002124</v>
+        <v>-0.90507899148002102</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.95473722958837581</v>
+        <v>-0.95473722958837604</v>
       </c>
       <c r="S3" s="2">
-        <v>-1.0032929897926683</v>
+        <v>-1.0032929897926699</v>
       </c>
       <c r="T3" s="2">
-        <v>-1.0507824442476372</v>
+        <v>-1.0507824442476399</v>
       </c>
       <c r="U3" s="2">
-        <v>-1.0972405080318333</v>
+        <v>-1.0972405080318299</v>
       </c>
       <c r="V3" s="2">
-        <v>-1.1427009763938774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-1.14270097639388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3006,67 +3011,67 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>-8.5457932310202143E-4</v>
+        <v>-8.54579323102021E-4</v>
       </c>
       <c r="D4" s="2">
-        <v>-3.2428206347424543E-3</v>
+        <v>-3.24282063474245E-3</v>
       </c>
       <c r="E4" s="2">
         <v>-6.9283032012923303E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>-1.1705264223042756E-2</v>
+        <v>-1.1705264223042799E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>-1.7395150583552905E-2</v>
+        <v>-1.7395150583552899E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>-2.3841983391596325E-2</v>
+        <v>-2.3841983391596301E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>-3.0910160838100068E-2</v>
+        <v>-3.0910160838100099E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>-3.8481128674090419E-2</v>
+        <v>-3.8481128674090398E-2</v>
       </c>
       <c r="K4" s="2">
-        <v>-4.6451862751581988E-2</v>
+        <v>-4.6451862751582002E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>-5.4732401801416419E-2</v>
+        <v>-5.4732401801416398E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>-6.3244751022532839E-2</v>
+        <v>-6.3244751022532797E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>-7.1921010446804531E-2</v>
+        <v>-7.1921010446804504E-2</v>
       </c>
       <c r="O4" s="2">
         <v>-8.0702554171626695E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>-8.9538587226780347E-2</v>
+        <v>-8.9538587226780306E-2</v>
       </c>
       <c r="Q4" s="2">
-        <v>-9.8385516016105887E-2</v>
+        <v>-9.8385516016105901E-2</v>
       </c>
       <c r="R4" s="2">
-        <v>-0.10720582417236979</v>
+        <v>-0.10720582417237</v>
       </c>
       <c r="S4" s="2">
-        <v>-0.11596758279576748</v>
+        <v>-0.11596758279576699</v>
       </c>
       <c r="T4" s="2">
-        <v>-0.12464356996105803</v>
+        <v>-0.12464356996105801</v>
       </c>
       <c r="U4" s="2">
-        <v>-0.13321088736699349</v>
+        <v>-0.13321088736699299</v>
       </c>
       <c r="V4" s="2">
-        <v>-0.14165027670640506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>-0.14165027670640501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3074,61 +3079,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-7.0780707160958189E-2</v>
+        <v>-7.0780707160958203E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.13885027284662849</v>
+        <v>-0.13885027284662799</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.20421026663221375</v>
+        <v>-0.204210266632214</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.2668719350043518</v>
+        <v>-0.26687193500435202</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.32685456337966745</v>
+        <v>-0.32685456337966701</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.38418697414933189</v>
+        <v>-0.38418697414933201</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.43890565089894518</v>
+        <v>-0.43890565089894501</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.4910558238757029</v>
+        <v>-0.49105582387570301</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.54068951148984667</v>
+        <v>-0.54068951148984701</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.58786624427765977</v>
+        <v>-0.58786624427765999</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.6326510812273507</v>
+        <v>-0.63265108122735103</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.6751150500230273</v>
+        <v>-0.67511505002302696</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.71533321032242714</v>
+        <v>-0.71533321032242703</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.75338489894948668</v>
+        <v>-0.75338489894948701</v>
       </c>
       <c r="Q5" s="2">
-        <v>-0.78935191170151264</v>
+        <v>-0.78935191170151298</v>
       </c>
       <c r="R5" s="2">
-        <v>-0.82331863805382732</v>
+        <v>-0.82331863805382699</v>
       </c>
       <c r="S5" s="2">
-        <v>-0.85537042021969178</v>
+        <v>-0.85537042021969201</v>
       </c>
       <c r="T5" s="2">
-        <v>-0.88559364697492793</v>
+        <v>-0.88559364697492804</v>
       </c>
       <c r="U5" s="2">
-        <v>-0.91407432863480387</v>
+        <v>-0.91407432863480398</v>
       </c>
       <c r="V5" s="2">
         <v>-0.94089816461395803</v>
